--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="16" t="n">
-        <v>1304.725</v>
+        <v>1996.418</v>
       </c>
       <c r="N34" s="20" t="n"/>
     </row>
@@ -1024,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="16" t="n">
-        <v>1739.632</v>
+        <v>2661.888</v>
       </c>
       <c r="N35" s="20" t="n"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="D36" s="16" t="n">
-        <v>2519.906</v>
+        <v>3855.82</v>
       </c>
       <c r="N36" s="20" t="n"/>
     </row>
@@ -1062,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="17" t="n">
-        <v>2143.067</v>
+        <v>3279.202</v>
       </c>
       <c r="N37" s="20" t="n"/>
     </row>
@@ -1113,7 +1113,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="18" t="n">
-        <v>1675.673</v>
+        <v>2564.02</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" s="30">
@@ -1131,7 +1131,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="18" t="n">
-        <v>2213.895</v>
+        <v>3387.579</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="30">
@@ -1149,7 +1149,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="18" t="n">
-        <v>2788.521</v>
+        <v>4266.839</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" s="30" thickBot="1">
@@ -1167,7 +1167,7 @@
         <v>50</v>
       </c>
       <c r="D44" s="19" t="n">
-        <v>2437.246</v>
+        <v>3729.338</v>
       </c>
     </row>
     <row r="52">
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/PITONES.xlsx
+++ b/server/LISTAS/ma/PITONES.xlsx
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="16" t="n">
-        <v>1304.725</v>
+        <v>2235.988</v>
       </c>
       <c r="N34" s="20" t="n"/>
     </row>
@@ -1024,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="16" t="n">
-        <v>1739.632</v>
+        <v>2981.315</v>
       </c>
       <c r="N35" s="20" t="n"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="D36" s="16" t="n">
-        <v>2519.906</v>
+        <v>4318.518</v>
       </c>
       <c r="N36" s="20" t="n"/>
     </row>
@@ -1062,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="17" t="n">
-        <v>2143.067</v>
+        <v>3672.706</v>
       </c>
       <c r="N37" s="20" t="n"/>
     </row>
@@ -1113,7 +1113,7 @@
         <v>100</v>
       </c>
       <c r="D41" s="18" t="n">
-        <v>1675.673</v>
+        <v>2871.702</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1" s="30">
@@ -1131,7 +1131,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="18" t="n">
-        <v>2213.895</v>
+        <v>3794.088</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="30">
@@ -1149,7 +1149,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="18" t="n">
-        <v>2788.521</v>
+        <v>4778.86</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" s="30" thickBot="1">
@@ -1167,7 +1167,7 @@
         <v>50</v>
       </c>
       <c r="D44" s="19" t="n">
-        <v>2437.246</v>
+        <v>4176.859</v>
       </c>
     </row>
     <row r="52">
@@ -1181,8 +1181,8 @@
   <mergeCells count="4">
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
